--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -701,7 +701,103 @@
     <t xml:space="preserve">2018-11-20</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-11-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-11</t>
   </si>
 </sst>
 </file>
@@ -6170,22 +6266,758 @@
         <v>229</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8233</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>2.1822</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.4277</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>1.7732</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>2.8571</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.6667</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.0474</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-0.2278</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-2.163</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-0.199</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-2.4979</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1.3844</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>253</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>259</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
